--- a/大作业指令.xlsx
+++ b/大作业指令.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\dianlu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D09881-EBFE-4FCC-A40F-1A95BC9F337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482A319-9BB4-4481-B821-85CB12B12A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="3720" windowWidth="12730" windowHeight="11170" xr2:uid="{D28E4B02-94A1-4953-A3A1-49F9BF983B70}"/>
+    <workbookView xWindow="420" yWindow="2090" windowWidth="15680" windowHeight="11080" activeTab="1" xr2:uid="{D28E4B02-94A1-4953-A3A1-49F9BF983B70}"/>
   </bookViews>
   <sheets>
     <sheet name="中断处理" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>二进制</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,11 +45,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令码HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制码HEX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001010000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INP2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01001010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000110000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000111000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00101010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000001000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011100000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MUL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010010000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011010000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000001000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4040</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -418,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B651473-5672-470B-A0DA-C7488BB2D34F}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D9" sqref="D6:D9"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -447,12 +636,12 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B5" si="0">BIN2HEX(A3)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" si="0"/>
@@ -461,7 +650,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" si="0"/>
@@ -472,4 +661,478 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A038BB-8140-4842-AFB4-CC3E50C5C843}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="10.9140625" customWidth="1"/>
+    <col min="6" max="6" width="18.4140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="str">
+        <f>BIN2HEX(C2)</f>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>BIN2DEC(B2)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="str">
+        <f>BIN2HEX(C6)</f>
+        <v>2A</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="str">
+        <f>BIN2HEX(C10)</f>
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11" t="str">
+        <f t="shared" ref="D11:D30" si="0">BIN2HEX(C11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>4A</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>5A</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>7F</v>
+      </c>
+      <c r="E26">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/大作业指令.xlsx
+++ b/大作业指令.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\dianlu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9482A319-9BB4-4481-B821-85CB12B12A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0160FB8-2572-4BCA-AA8B-2B20D8D36A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="2090" windowWidth="15680" windowHeight="11080" activeTab="1" xr2:uid="{D28E4B02-94A1-4953-A3A1-49F9BF983B70}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{D28E4B02-94A1-4953-A3A1-49F9BF983B70}"/>
   </bookViews>
   <sheets>
     <sheet name="中断处理" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="指令" sheetId="2" r:id="rId2"/>
+    <sheet name="加乘法" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
   <si>
     <t>二进制</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,6 +239,156 @@
   </si>
   <si>
     <t>4040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10010000</t>
+  </si>
+  <si>
+    <t>10010000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000000000001000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00011010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INP1 CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV A1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INP2 CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOV A2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00110001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD CA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10111010</t>
+  </si>
+  <si>
+    <t>10111010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000010000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000011000000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PUT 1010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SET 1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01101001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JMP 1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01111101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +396,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,6 +409,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -284,11 +443,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -665,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27A038BB-8140-4842-AFB4-CC3E50C5C843}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -712,7 +877,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="str">
-        <f>BIN2HEX(C2)</f>
+        <f t="shared" ref="D2:D9" si="0">BIN2HEX(C2)</f>
         <v>10</v>
       </c>
       <c r="E2">
@@ -727,6 +892,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
@@ -735,6 +904,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
@@ -743,6 +916,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
@@ -761,7 +938,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="str">
-        <f>BIN2HEX(C6)</f>
+        <f t="shared" si="0"/>
         <v>2A</v>
       </c>
       <c r="E6">
@@ -775,6 +952,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,6 +964,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
@@ -791,6 +976,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
@@ -824,7 +1013,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D11" t="str">
-        <f t="shared" ref="D11:D30" si="0">BIN2HEX(C11)</f>
+        <f t="shared" ref="D11:D45" si="1">BIN2HEX(C11)</f>
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -836,7 +1025,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -848,7 +1037,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -869,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4A</v>
       </c>
       <c r="E14">
@@ -884,7 +1073,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -896,7 +1085,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -908,7 +1097,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -929,7 +1118,7 @@
         <v>34</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5A</v>
       </c>
       <c r="E18">
@@ -944,7 +1133,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -956,7 +1145,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -968,7 +1157,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -989,7 +1178,7 @@
         <v>39</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6F</v>
       </c>
       <c r="E22">
@@ -1004,7 +1193,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
@@ -1016,7 +1205,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F24" s="1" t="s">
@@ -1028,7 +1217,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D25" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
@@ -1049,7 +1238,7 @@
         <v>43</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7F</v>
       </c>
       <c r="E26">
@@ -1064,7 +1253,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D27" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -1076,7 +1265,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
@@ -1088,7 +1277,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D29" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1109,7 +1298,7 @@
         <v>47</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="E30">
@@ -1123,11 +1312,496 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E34">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D36" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D37" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="1"/>
+        <v>A0</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D39" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D40" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D41" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="1"/>
+        <v>BA</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D43" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D44" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BC35FC1-AD17-44B5-BEDD-68A47E041170}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="3" t="str">
+        <f>BIN2HEX(C2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="str">
+        <f t="shared" ref="D3:D17" si="0">BIN2HEX(C3)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1A</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>7D</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1001</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>BA</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>A0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
